--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureDeviceAction_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +80,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処置の実施中に機器に起こった変化を示すコード</t>
+    <t>処置の実施中に機器に起こった変化を示すコード（未使用）</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -383,45 +380,43 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -47,16 +47,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -312,111 +315,113 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -370,58 +373,58 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
